--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdiro\Desktop\NixieClockRev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FA1D3B-4377-4065-9C1B-BD0923F6D09B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021965DA-32DD-4703-B4ED-A3B616CC3636}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="5025" windowWidth="28800" windowHeight="12690" xr2:uid="{9419127E-C365-4B28-B0E7-0B6ADC239E75}"/>
+    <workbookView minimized="1" xWindow="6750" yWindow="1890" windowWidth="26460" windowHeight="13860" xr2:uid="{9419127E-C365-4B28-B0E7-0B6ADC239E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
